--- a/CDE_ID_detective_revamp/out/HDP01011_EQUIPD_Data Dictionary_2024-12-13_enhanced.xlsx
+++ b/CDE_ID_detective_revamp/out/HDP01011_EQUIPD_Data Dictionary_2024-12-13_enhanced.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmaefos\Code Stuffs\CDE_detective\CDE_ID_detective_revamp\out\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C4AFDE-A215-4B50-B987-4D8C796AC011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7814BE0-A45A-4ABC-9BEE-5935E1FA6AD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27885" yWindow="6960" windowWidth="24555" windowHeight="18660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38505" yWindow="6465" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5001,7 +5001,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
